--- a/src/test/java/utilities/Data.xlsx
+++ b/src/test/java/utilities/Data.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="111">
   <si>
     <t>https://uk.tommy.com/3-pack-organic-cotton-trunks-um0um016420w2</t>
   </si>
@@ -88,6 +88,282 @@
   </si>
   <si>
     <t>https://uk.tommy.com/scanton-faded-slim-fit-jeans-kb0kb055641a6</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/3-pack-stretch-cotton-trunks-1u879038420wk</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/all-over-print-organic-cotton-trunks-um0um018340gr</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/logo-waistband-cotton-blend-trunks-um0um01810za6</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/3-pack-organic-cotton-trunks-um0um016420xt</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/3-pack-statement-waistband-trunks-um0um012340xu</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/logo-print-organic-cotton-boxer-shorts-um0um018240z1</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/logo-waistband-organic-cotton-trunks-um0um01812chs</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/logo-waistband-organic-cotton-trunks-um0um01812xcn</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/th-cool-signature-waistband-trunks-um0um018190io</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/th-cool-signature-waistband-trunks-um0um01819p6s</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/3-pack-stretch-cotton-boxer-shorts-um0um00010004</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/3-pack-stretch-cotton-trunks-1u87903842990</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/3-pack-cotton-briefs-1u87903766904</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/3-pack-stretch-cotton-trunks-1u879038420wd</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/3-pack-organic-cotton-trunks-um0um015650x0</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/all-over-print-cotton-trunks-um0um018310go</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/logo-waistband-organic-cotton-trunks-um0um0181201x</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/all-over-logo-print-trunks-um0um018200z4</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/3-pack-stretch-cotton-trunks-1u87903842611</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/3-pack-stretch-cotton-trunks-1u879038420t2</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/3-pack-organic-cotton-trunks-um0um015650wj</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/stripe-boxer-shorts-um0um01863cdw</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/all-over-logo-trunks-um0um00717chs</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/logo-waistband-cotton-boxer-shorts-um0um018270mu</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/logo-organic-cotton-trunks-um0um01659sa1</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/print-trunks-um0um018210jh</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/logo-waistband-cotton-boxer-shorts-um0um018270ms</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/th-cool-all-over-logo-briefs-um0um018090io</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/3-pack-statement-waistband-trunks-um0um012340t3</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/2-pack-printed-trunks-um0um012330t0</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/3-pack-logo-waistband-briefs-um0um012270r9</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/3-pack-statement-waistband-trunks-um0um012340xy</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/3-pack-statement-waistband-trunks-um0um012340sa</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/logo-print-organic-cotton-boxer-shorts-um0um018240f4</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/3-pack-statement-waistband-trunks-um0um012340r9</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/logo-waistband-organic-cotton-trunks-um0um01812ycd</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/flag-waistband-stretch-cotton-trunks-um0um01818sa1</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/logo-waistband-cotton-blend-trunks-um0um01810beh</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/logo-waistband-cotton-blend-trunks-um0um01810chs</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/logo-waistband-cotton-blend-trunks-um0um01810ycd</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/logo-print-stretch-cotton-jock-strap-um0um020010f5</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/logo-waistband-cotton-blend-trunks-um0um01810p01</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/logo-print-stretch-cotton-trunks-um0um020000f5</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/2-pack-printed-trunks-um0um01233054</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/3-pack-stretch-cotton-trunks-1u87903842904</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/3-pack-cotton-briefs-1u87903766990</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/3-pack-stretch-cotton-trunks-1u87903842100</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/3-pack-stretch-cotton-boxer-shorts-um0um00010990</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/smart-cotton-poplin-boxers-1u87905489416</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/3-pack-stretch-cotton-trunks-1u87903842409</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/2-pack-pure-cotton-t-shirts-um0um01030409</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/3-pack-stretch-cotton-trunks-1u87903842004</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/2-pack-pure-cotton-t-shirts-um0um01030100</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/cotton-poplin-boxer-shorts-um0um00517416</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/3-pack-stretch-cotton-boxer-shorts-um0um00010409</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/flag-waist-trunks-um0um00858100</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/flag-waist-trunks-um0um00858416</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/stretch-cotton-trunks-um0um00515004</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/stretch-cotton-trunks-um0um00515416</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/flag-waist-trunks-um0um00858091</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/flag-waist-briefs-um0um00894091</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/woven-cotton-blend-boxers-um0um00897416</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/all-over-print-cotton-trunks-um0um018310j6</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/repeat-logo-waist-print-trunks-um0um01832chs</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/logo-waistband-stretch-cotton-briefs-um0um01813chs</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/all-over-print-cotton-trunks-um0um018310k3</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/flag-waist-briefs-um0um00894416</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/elasticated-logo-waist-cotton-boxer-shorts-um0um01829chs</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/logo-waistband-cotton-briefs-um0um01811p01</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/logo-waistband-cotton-boxer-shorts-um0um01817cd2</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/microfibre-logo-trunks-um0um01360611</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/logo-waistband-trunks-um0um01646100</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/logo-waistband-trunks-um0um01646990</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/logo-waistband-trunks-um0um01646416</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/stretch-cotton-boxer-shorts-um0um01370416</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/stretch-cotton-boxer-shorts-um0um01370004</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/logo-waistband-trunks-um0um01646004</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/stretch-cotton-boxer-shorts-um0um01370100</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/stretch-cotton-trunks-um0um00515990</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/heart-print-boxer-shorts-um0um01528425</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/branded-cotton-boxer-shorts-1u87904670100</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/2-pack-pure-cotton-boxer-shorts-um0um015660y4</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/all-over-print-cotton-trunks-um0um018310yj</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/stretch-cotton-stripe-trunks-um0um015590so</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/graphic-logo-print-stretch-cotton-trunks-um0um01545425</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/star-print-stretch-cotton-trunks-um0um01541chs</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/low-rise-flag-trunks-um0um00882990</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/print-trunks-um0um018210ib</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/lewis-hamilton-organic-cotton-boxer-shorts-um0um01690yap</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/all-over-logo-trunks-um0um01526425</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/lewis-hamilton-organic-cotton-trunks-um0um01685gbh</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/3-pack-stretch-cotton-trunks-1u879038420xp</t>
   </si>
 </sst>
 </file>
@@ -440,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20A3A0B-7D47-44C1-B9B1-91AEC8797265}">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H6" sqref="A1:XFD1048576"/>
@@ -450,92 +726,467 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/utilities/Data.xlsx
+++ b/src/test/java/utilities/Data.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="124">
   <si>
     <t>https://uk.tommy.com/3-pack-organic-cotton-trunks-um0um016420w2</t>
   </si>
@@ -364,6 +364,45 @@
   </si>
   <si>
     <t>https://uk.tommy.com/3-pack-stretch-cotton-trunks-1u879038420xp</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/nora-skinny-fit-faded-jeans-kg0kg051921bj</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/flare-fit-high-rise-jeans-kg0kg051941aa</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/nora-super-skinny-fit-faded-jeans-kg0kg052001by</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/nora-super-skinny-jeans-kg0kg051931a4</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/nora-skinny-jeans-kg0kg048331aa</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/flag-star-embroidery-straight-fit-jeans-kg0kg053141a4</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/nora-faded-skinny-fit-jeans-kg0kg053801a4</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/dark-wash-skinny-jeans-kg0kg03528911</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/faded-skinny-jeans-kg0kg03529911</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/nora-signature-skinny-fit-jeans-kg0kg049921af</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/nora-super-skinny-fit-jeans-kg0kg049931a4</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/nora-flared-fit-jeans-kg0kg049871a8</t>
+  </si>
+  <si>
+    <t>https://uk.tommy.com/nora-faded-super-skinny-fit-jeans-kg0kg049961ad</t>
   </si>
 </sst>
 </file>
@@ -726,67 +765,67 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14">
